--- a/Base de données/ORGA.xlsx
+++ b/Base de données/ORGA.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>ORGA</t>
-  </si>
-  <si>
-    <t>occurrences_ORGA</t>
   </si>
 </sst>
 </file>
@@ -360,20 +357,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
